--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H2">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I2">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J2">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N2">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q2">
-        <v>75.14075400236582</v>
+        <v>81.15258545486401</v>
       </c>
       <c r="R2">
-        <v>75.14075400236582</v>
+        <v>730.373269093776</v>
       </c>
       <c r="S2">
-        <v>0.007395783287174731</v>
+        <v>0.00696612056789462</v>
       </c>
       <c r="T2">
-        <v>0.007395783287174731</v>
+        <v>0.006966120567894621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H3">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I3">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J3">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N3">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q3">
-        <v>404.3506117395549</v>
+        <v>428.8814999628961</v>
       </c>
       <c r="R3">
-        <v>404.3506117395549</v>
+        <v>3859.933499666064</v>
       </c>
       <c r="S3">
-        <v>0.03979850263903557</v>
+        <v>0.0368150961714302</v>
       </c>
       <c r="T3">
-        <v>0.03979850263903557</v>
+        <v>0.03681509617143021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H4">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I4">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J4">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N4">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q4">
-        <v>98.44132618849653</v>
+        <v>110.721981637632</v>
       </c>
       <c r="R4">
-        <v>98.44132618849653</v>
+        <v>996.4978347386881</v>
       </c>
       <c r="S4">
-        <v>0.009689159027726497</v>
+        <v>0.00950435120804558</v>
       </c>
       <c r="T4">
-        <v>0.009689159027726497</v>
+        <v>0.00950435120804558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H5">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I5">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J5">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N5">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q5">
-        <v>77.45313514592583</v>
+        <v>90.77795871696001</v>
       </c>
       <c r="R5">
-        <v>77.45313514592583</v>
+        <v>817.00162845264</v>
       </c>
       <c r="S5">
-        <v>0.007623381080704733</v>
+        <v>0.007792360548776597</v>
       </c>
       <c r="T5">
-        <v>0.007623381080704733</v>
+        <v>0.0077923605487766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H6">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I6">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J6">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N6">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q6">
-        <v>219.1564675168235</v>
+        <v>241.521587842488</v>
       </c>
       <c r="R6">
-        <v>219.1564675168235</v>
+        <v>2173.694290582392</v>
       </c>
       <c r="S6">
-        <v>0.02157063448799227</v>
+        <v>0.02073216141210793</v>
       </c>
       <c r="T6">
-        <v>0.02157063448799227</v>
+        <v>0.02073216141210793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H7">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I7">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J7">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N7">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q7">
-        <v>133.1584169681262</v>
+        <v>139.5756509253773</v>
       </c>
       <c r="R7">
-        <v>133.1584169681262</v>
+        <v>1256.180858328396</v>
       </c>
       <c r="S7">
-        <v>0.01310621390262473</v>
+        <v>0.01198114400470126</v>
       </c>
       <c r="T7">
-        <v>0.01310621390262473</v>
+        <v>0.01198114400470127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H8">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I8">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J8">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N8">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q8">
-        <v>716.5577198977442</v>
+        <v>737.6402636052494</v>
       </c>
       <c r="R8">
-        <v>716.5577198977442</v>
+        <v>6638.762372447244</v>
       </c>
       <c r="S8">
-        <v>0.07052771401454014</v>
+        <v>0.06331888236469925</v>
       </c>
       <c r="T8">
-        <v>0.07052771401454014</v>
+        <v>0.06331888236469926</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H9">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I9">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J9">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N9">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q9">
-        <v>174.449821984624</v>
+        <v>190.4325360948054</v>
       </c>
       <c r="R9">
-        <v>174.449821984624</v>
+        <v>1713.892824853248</v>
       </c>
       <c r="S9">
-        <v>0.01717035043119034</v>
+        <v>0.01634668814370902</v>
       </c>
       <c r="T9">
-        <v>0.01717035043119034</v>
+        <v>0.01634668814370902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H10">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I10">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J10">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N10">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q10">
-        <v>137.2562333474202</v>
+        <v>156.13048686716</v>
       </c>
       <c r="R10">
-        <v>137.2562333474202</v>
+        <v>1405.17438180444</v>
       </c>
       <c r="S10">
-        <v>0.01350954445598781</v>
+        <v>0.01340220757902589</v>
       </c>
       <c r="T10">
-        <v>0.01350954445598781</v>
+        <v>0.01340220757902589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H11">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I11">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J11">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N11">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q11">
-        <v>388.3715125076861</v>
+        <v>415.3969050609647</v>
       </c>
       <c r="R11">
-        <v>388.3715125076861</v>
+        <v>3738.572145548682</v>
       </c>
       <c r="S11">
-        <v>0.03822574819156968</v>
+        <v>0.03565758143090086</v>
       </c>
       <c r="T11">
-        <v>0.03822574819156968</v>
+        <v>0.03565758143090088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H12">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I12">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J12">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N12">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q12">
-        <v>444.480215723935</v>
+        <v>455.5703139403485</v>
       </c>
       <c r="R12">
-        <v>444.480215723935</v>
+        <v>4100.132825463135</v>
       </c>
       <c r="S12">
-        <v>0.04374828805720259</v>
+        <v>0.03910605825155332</v>
       </c>
       <c r="T12">
-        <v>0.04374828805720259</v>
+        <v>0.03910605825155332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H13">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I13">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J13">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N13">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q13">
-        <v>2391.855784790817</v>
+        <v>2407.633453526567</v>
       </c>
       <c r="R13">
-        <v>2391.855784790817</v>
+        <v>21668.70108173911</v>
       </c>
       <c r="S13">
-        <v>0.2354201428153245</v>
+        <v>0.2066707403905309</v>
       </c>
       <c r="T13">
-        <v>0.2354201428153245</v>
+        <v>0.206670740390531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H14">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I14">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J14">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N14">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q14">
-        <v>582.3101255949008</v>
+        <v>621.5655071495964</v>
       </c>
       <c r="R14">
-        <v>582.3101255949008</v>
+        <v>5594.089564346368</v>
       </c>
       <c r="S14">
-        <v>0.05731429704167983</v>
+        <v>0.05335505011182778</v>
       </c>
       <c r="T14">
-        <v>0.05731429704167983</v>
+        <v>0.05335505011182778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H15">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I15">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J15">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N15">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q15">
-        <v>458.1586473975532</v>
+        <v>509.6047515892266</v>
       </c>
       <c r="R15">
-        <v>458.1586473975532</v>
+        <v>4586.442764303039</v>
       </c>
       <c r="S15">
-        <v>0.0450945976292801</v>
+        <v>0.0437443628153657</v>
       </c>
       <c r="T15">
-        <v>0.0450945976292801</v>
+        <v>0.04374436281536571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H16">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I16">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J16">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N16">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O16">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P16">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q16">
-        <v>1296.376583552865</v>
+        <v>1355.841776082057</v>
       </c>
       <c r="R16">
-        <v>1296.376583552865</v>
+        <v>12202.57598473851</v>
       </c>
       <c r="S16">
-        <v>0.1275968067904014</v>
+        <v>0.1163851678937469</v>
       </c>
       <c r="T16">
-        <v>0.1275968067904014</v>
+        <v>0.1163851678937469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H17">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I17">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J17">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N17">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O17">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P17">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q17">
-        <v>208.926419595579</v>
+        <v>303.161826634128</v>
       </c>
       <c r="R17">
-        <v>208.926419595579</v>
+        <v>2728.456439707152</v>
       </c>
       <c r="S17">
-        <v>0.02056373459129234</v>
+        <v>0.02602334631828941</v>
       </c>
       <c r="T17">
-        <v>0.02056373459129234</v>
+        <v>0.02602334631828942</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H18">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I18">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J18">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N18">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P18">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q18">
-        <v>1124.283708536748</v>
+        <v>1602.173217397392</v>
       </c>
       <c r="R18">
-        <v>1124.283708536748</v>
+        <v>14419.55895657653</v>
       </c>
       <c r="S18">
-        <v>0.1106584405764295</v>
+        <v>0.1375302060986022</v>
       </c>
       <c r="T18">
-        <v>0.1106584405764295</v>
+        <v>0.1375302060986022</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H19">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I19">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J19">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N19">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O19">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P19">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q19">
-        <v>273.7129017916899</v>
+        <v>413.6242611824641</v>
       </c>
       <c r="R19">
-        <v>273.7129017916899</v>
+        <v>3722.618350642177</v>
       </c>
       <c r="S19">
-        <v>0.02694039115566158</v>
+        <v>0.03550541805973578</v>
       </c>
       <c r="T19">
-        <v>0.02694039115566158</v>
+        <v>0.03550541805973578</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H20">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I20">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J20">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N20">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O20">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P20">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q20">
-        <v>215.3559200641145</v>
+        <v>339.11934694992</v>
       </c>
       <c r="R20">
-        <v>215.3559200641145</v>
+        <v>3052.07412254928</v>
       </c>
       <c r="S20">
-        <v>0.0211965628446338</v>
+        <v>0.02910993216688993</v>
       </c>
       <c r="T20">
-        <v>0.0211965628446338</v>
+        <v>0.02910993216688994</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H21">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I21">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J21">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N21">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O21">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P21">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q21">
-        <v>609.3574212479039</v>
+        <v>902.2525324547761</v>
       </c>
       <c r="R21">
-        <v>609.3574212479039</v>
+        <v>8120.272792092985</v>
       </c>
       <c r="S21">
-        <v>0.05997644676069189</v>
+        <v>0.07744916429389632</v>
       </c>
       <c r="T21">
-        <v>0.05997644676069189</v>
+        <v>0.07744916429389634</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H22">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I22">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J22">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N22">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O22">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P22">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q22">
-        <v>11.23762798577388</v>
+        <v>12.50266263944133</v>
       </c>
       <c r="R22">
-        <v>11.23762798577388</v>
+        <v>112.523963754972</v>
       </c>
       <c r="S22">
-        <v>0.001106071696353443</v>
+        <v>0.001073225885261549</v>
       </c>
       <c r="T22">
-        <v>0.001106071696353443</v>
+        <v>0.001073225885261549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H23">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I23">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J23">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N23">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P23">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q23">
-        <v>60.47240024243227</v>
+        <v>66.07504463694534</v>
       </c>
       <c r="R23">
-        <v>60.47240024243227</v>
+        <v>594.675401732508</v>
       </c>
       <c r="S23">
-        <v>0.005952039914774349</v>
+        <v>0.005671867690844988</v>
       </c>
       <c r="T23">
-        <v>0.005952039914774349</v>
+        <v>0.005671867690844989</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H24">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I24">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J24">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N24">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O24">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P24">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q24">
-        <v>14.72233033618099</v>
+        <v>17.05823142203733</v>
       </c>
       <c r="R24">
-        <v>14.72233033618099</v>
+        <v>153.524082798336</v>
       </c>
       <c r="S24">
-        <v>0.001449056056120554</v>
+        <v>0.001464274934617482</v>
       </c>
       <c r="T24">
-        <v>0.001449056056120554</v>
+        <v>0.001464274934617481</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H25">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I25">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J25">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N25">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O25">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P25">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q25">
-        <v>11.58345468657898</v>
+        <v>13.98558267212</v>
       </c>
       <c r="R25">
-        <v>11.58345468657898</v>
+        <v>125.87024404908</v>
       </c>
       <c r="S25">
-        <v>0.001140109940553023</v>
+        <v>0.001200519423505396</v>
       </c>
       <c r="T25">
-        <v>0.001140109940553023</v>
+        <v>0.001200519423505396</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H26">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I26">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J26">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N26">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O26">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P26">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q26">
-        <v>32.77580702148475</v>
+        <v>37.20969474985267</v>
       </c>
       <c r="R26">
-        <v>32.77580702148475</v>
+        <v>334.887252748674</v>
       </c>
       <c r="S26">
-        <v>0.003225982611054569</v>
+        <v>0.003194072234041104</v>
       </c>
       <c r="T26">
-        <v>0.003225982611054569</v>
+        <v>0.003194072234041105</v>
       </c>
     </row>
   </sheetData>
